--- a/Analytics/BIGFIVE/MultiBookings_bf.xlsx
+++ b/Analytics/BIGFIVE/MultiBookings_bf.xlsx
@@ -115,7 +115,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>217450.0</v>
+        <v>220750.0</v>
       </c>
     </row>
     <row r="3">
@@ -137,7 +137,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>157400.0</v>
+        <v>160500.0</v>
       </c>
     </row>
     <row r="5">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>118175.0</v>
+        <v>122675.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/BIGFIVE/MultiBookings_bf.xlsx
+++ b/Analytics/BIGFIVE/MultiBookings_bf.xlsx
@@ -35,19 +35,19 @@
     <t>5</t>
   </si>
   <si>
-    <t>SP1</t>
+    <t>E0</t>
   </si>
   <si>
-    <t>E0</t>
+    <t>SP1</t>
   </si>
   <si>
     <t>I1</t>
   </si>
   <si>
-    <t>D1</t>
+    <t>F1</t>
   </si>
   <si>
-    <t>F1</t>
+    <t>D1</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>220750.0</v>
+        <v>62350.0</v>
       </c>
     </row>
     <row r="3">
@@ -126,7 +126,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>168700.0</v>
+        <v>62350.0</v>
       </c>
     </row>
     <row r="4">
@@ -137,7 +137,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>160500.0</v>
+        <v>45800.0</v>
       </c>
     </row>
     <row r="5">
@@ -148,7 +148,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>123525.0</v>
+        <v>40250.0</v>
       </c>
     </row>
     <row r="6">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>122675.0</v>
+        <v>35350.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/BIGFIVE/MultiBookings_bf.xlsx
+++ b/Analytics/BIGFIVE/MultiBookings_bf.xlsx
@@ -35,10 +35,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>E0</t>
+    <t>SP1</t>
   </si>
   <si>
-    <t>SP1</t>
+    <t>E0</t>
   </si>
   <si>
     <t>I1</t>
@@ -115,7 +115,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>62350.0</v>
+        <v>93300.0</v>
       </c>
     </row>
     <row r="3">
@@ -126,7 +126,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>62350.0</v>
+        <v>83950.0</v>
       </c>
     </row>
     <row r="4">
@@ -137,7 +137,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>45800.0</v>
+        <v>61900.0</v>
       </c>
     </row>
     <row r="5">
@@ -148,7 +148,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>40250.0</v>
+        <v>56900.0</v>
       </c>
     </row>
     <row r="6">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>35350.0</v>
+        <v>51750.0</v>
       </c>
     </row>
   </sheetData>
